--- a/Tables/PERMANOVA_PCO_den_met_fish_bioreg.xlsx
+++ b/Tables/PERMANOVA_PCO_den_met_fish_bioreg.xlsx
@@ -136,19 +136,19 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09213885368070264</v>
+        <v>0.19972966816410173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09213885368070264</v>
+        <v>0.19972966816410173</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6771922134299644</v>
+        <v>0.9794400430884299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004610908771333769</v>
+        <v>0.0055290149473180596</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6515</v>
+        <v>0.4381</v>
       </c>
     </row>
     <row r="3">
@@ -159,19 +159,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0042083381081341326</v>
+        <v>0.5437913689595433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0042083381081341326</v>
+        <v>0.5437913689595433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03092998973250618</v>
+        <v>2.666659624183864</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1059805196597337E-4</v>
+        <v>0.015053500237779193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9893</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="4">
@@ -182,19 +182,19 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825899116271602</v>
+        <v>6.2113009675232265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26086330387572004</v>
+        <v>2.0704336558410756</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9172649875418453</v>
+        <v>10.153051610853252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03916318191220061</v>
+        <v>0.1719442895359476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0184</v>
+        <v>1.0E-4</v>
       </c>
     </row>
     <row r="5">
@@ -205,19 +205,19 @@
         <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15426463023482806</v>
+        <v>0.10629474801754313</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15426463023482806</v>
+        <v>0.10629474801754313</v>
       </c>
       <c r="E5" t="n">
-        <v>1.133797548260116</v>
+        <v>0.5212512168840034</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007719871783094502</v>
+        <v>0.0029425035149386655</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3415</v>
+        <v>0.8343</v>
       </c>
     </row>
     <row r="6">
@@ -228,19 +228,19 @@
         <v>3.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.31375576454189735</v>
+        <v>0.3631016987679727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10458525484729912</v>
+        <v>0.12103389958932424</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7686694308962593</v>
+        <v>0.593529488726378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.015701293742986525</v>
+        <v>0.010051559882607036</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7219</v>
+        <v>0.9276</v>
       </c>
     </row>
     <row r="7">
@@ -251,19 +251,19 @@
         <v>3.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39155610506476846</v>
+        <v>1.430894045606487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13051870168825616</v>
+        <v>0.47696468186882895</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9592722826416804</v>
+        <v>2.3389530101128435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.019594659659745182</v>
+        <v>0.03961071301478601</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4944</v>
+        <v>9.0E-4</v>
       </c>
     </row>
     <row r="8">
@@ -274,19 +274,19 @@
         <v>3.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.28434752311048506</v>
+        <v>0.35105904465797444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09478250770349501</v>
+        <v>0.11701968155265814</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6966222567582845</v>
+        <v>0.5738444518315675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.014229615803129547</v>
+        <v>0.009718189206174253</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7918</v>
+        <v>0.9372</v>
       </c>
     </row>
     <row r="9">
@@ -297,16 +297,16 @@
         <v>132.0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.959935812390412</v>
+        <v>26.917743851402953</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13606011979083646</v>
+        <v>0.20392230190456784</v>
       </c>
       <c r="E9" t="e">
         <v>#N/A</v>
       </c>
       <c r="F9" t="n">
-        <v>0.898769870275544</v>
+        <v>0.7451502296604492</v>
       </c>
       <c r="G9" t="e">
         <v>#N/A</v>
@@ -320,7 +320,7 @@
         <v>147.0</v>
       </c>
       <c r="C10" t="n">
-        <v>19.982796938758387</v>
+        <v>36.1239153930998</v>
       </c>
       <c r="D10" t="e">
         <v>#N/A</v>

--- a/Tables/PERMANOVA_PCO_den_met_fish_bioreg.xlsx
+++ b/Tables/PERMANOVA_PCO_den_met_fish_bioreg.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199729668164102</v>
+        <v>0.136116072538749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199729668164102</v>
+        <v>0.136116072538749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97944004308843</v>
+        <v>0.962610311559667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00552901494731806</v>
+        <v>0.00528136954727986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4305</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.543791368959543</v>
+        <v>0.428008694200286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.543791368959543</v>
+        <v>0.428008694200286</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66665962418386</v>
+        <v>3.02686945626568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0150535002377792</v>
+        <v>0.016606944656568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.013</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.21130096752323</v>
+        <v>4.84432176042587</v>
       </c>
       <c r="C4" t="n">
-        <v>2.07043365584108</v>
+        <v>1.61477392014196</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1530516108533</v>
+        <v>11.4196508713089</v>
       </c>
       <c r="E4" t="n">
-        <v>0.171944289535948</v>
+        <v>0.187962030828174</v>
       </c>
       <c r="F4" t="n">
         <v>0.0001</v>
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.106294748017543</v>
+        <v>0.0818481532698945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.106294748017543</v>
+        <v>0.0818481532698945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.521251216884003</v>
+        <v>0.578828604515365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00294250351493867</v>
+        <v>0.00317574799300543</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8201</v>
+        <v>0.7611</v>
       </c>
     </row>
     <row r="6">
@@ -466,19 +466,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.363101698767973</v>
+        <v>0.209823310614228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121033899589324</v>
+        <v>0.0699411035380759</v>
       </c>
       <c r="D6" t="n">
-        <v>0.593529488726378</v>
+        <v>0.494622172179173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.010051559882607</v>
+        <v>0.00814124608739322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9267</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="7">
@@ -486,19 +486,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1.43089404560649</v>
+        <v>1.2168096680377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.476964681868829</v>
+        <v>0.405603222679233</v>
       </c>
       <c r="D7" t="n">
-        <v>2.33895301011284</v>
+        <v>2.86841838197845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.039610713014786</v>
+        <v>0.0472128045259354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0012</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="8">
@@ -506,19 +506,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.351059044657974</v>
+        <v>0.190738581332644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117019681552658</v>
+        <v>0.0635795271108813</v>
       </c>
       <c r="D8" t="n">
-        <v>0.573844451831568</v>
+        <v>0.449633223024406</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00971818920617425</v>
+        <v>0.00740074934688417</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9396</v>
+        <v>0.9793</v>
       </c>
     </row>
     <row r="9">
@@ -526,14 +526,14 @@
         <v>132</v>
       </c>
       <c r="B9" t="n">
-        <v>26.917743851403</v>
+        <v>18.6652078825163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.203922301904568</v>
+        <v>0.141403090019063</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>0.745150229660449</v>
+        <v>0.72421910701476</v>
       </c>
       <c r="F9"/>
     </row>
@@ -542,7 +542,7 @@
         <v>147</v>
       </c>
       <c r="B10" t="n">
-        <v>36.1239153930998</v>
+        <v>25.7728741229356</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
